--- a/Roads.xlsx
+++ b/Roads.xlsx
@@ -20,7 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="383">
+  <si>
+    <t xml:space="preserve">Road Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road Name</t>
+  </si>
   <si>
     <t xml:space="preserve">A1   </t>
   </si>
@@ -1172,11 +1178,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1193,6 +1200,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1202,12 +1216,26 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -1236,8 +1264,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1258,22 +1294,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B192"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.07"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1986,15 +2022,15 @@
         <v>178</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2535,10 +2571,10 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2803,6 +2839,14 @@
       </c>
       <c r="B192" s="0" t="s">
         <v>380</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
